--- a/pred_ohlcv/54_21/2020-01-20 SNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 SNT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-226587.0226990801</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-158150.5178990801</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-158150.5178990801</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-158150.5178990801</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-157950.5178990801</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>291201.78510092</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>291201.78510092</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>291201.78510092</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>295008.5702009199</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>231233.5702009199</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>231233.5702009199</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>182252.0492009199</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>182352.0492009199</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-384093.7327990801</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-290192.3335143205</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-290192.3335143205</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-360192.3335143205</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-241289.6998143205</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-319681.5088143205</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-319681.5088143205</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-346036.3835143205</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-345036.3835143205</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-389011.6660143204</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>2678189.60388568</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>2678189.60388568</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2678689.60388568</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>2678589.60388568</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2926499.26438568</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>2859829.73778568</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2859829.73778568</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2859871.27208568</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2614015.68208568</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2614015.68208568</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2615231.78008568</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>2638028.97638568</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>2836654.19778568</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>2836654.19778568</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>3357892.36108568</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>3589377.27898568</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>3197568.05858568</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>3339696.606685679</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>3448348.97748568</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>3331409.07558568</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>3331409.07558568</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>3419626.03078568</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>3381773.84398568</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>3381773.84398568</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>3381773.84398568</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>3394685.28998568</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>3385749.28998568</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>3725126.77918568</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>3714201.53398568</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>3712201.53398568</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>3712201.53398568</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>3444924.51238568</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>3499286.134376232</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>3525691.871436074</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>3545642.408236074</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>3572679.622836074</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>2915095.24866584</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>3023574.34936584</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>2884010.34116584</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>2885366.647595605</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>2886065.068795606</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>2993468.473995605</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>2532273.327395605</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>2542945.662595605</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>2578994.503395605</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>2586492.854395605</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>2555721.329595605</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>2548266.978595606</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>2648300.088395606</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>2611354.540695606</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>2749426.472998898</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>2742679.339398899</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>2749026.660998899</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>2656392.486598899</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>2643894.211398899</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>2643894.211398899</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>2708316.517798899</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>2669875.970798899</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>2669875.970798899</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>2670598.687998899</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>2581712.113098899</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>2584170.568798899</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>499776.1182988981</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>575922.0167554382</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1502316.903138589</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1502316.903138589</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1503096.244538589</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1489785.735938589</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1452568.260938589</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1452568.260938589</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1452568.260938589</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1427657.297738589</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 SNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 SNT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-226587.0226990801</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-158150.5178990801</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-158150.5178990801</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-158150.5178990801</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-157950.5178990801</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>291201.78510092</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>291201.78510092</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>291201.78510092</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>295008.5702009199</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>231233.5702009199</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>231233.5702009199</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>182252.0492009199</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>182352.0492009199</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-384093.7327990801</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-290192.3335143205</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-290192.3335143205</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-360192.3335143205</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-241289.6998143205</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-319681.5088143205</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-346036.3835143205</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-474835.7930143204</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>2678189.60388568</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>2678189.60388568</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2678689.60388568</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>2678589.60388568</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2926499.26438568</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>2859829.73778568</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2859829.73778568</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2859871.27208568</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2614015.68208568</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2614015.68208568</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2615231.78008568</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>2638028.97638568</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>2836654.19778568</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>2836654.19778568</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>3357892.36108568</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>3589377.27898568</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>3197568.05858568</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>3339696.606685679</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>3448348.97748568</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>3331409.07558568</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>3331409.07558568</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>3419626.03078568</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>3381773.84398568</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>3381773.84398568</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>3381773.84398568</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>3394685.28998568</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>3385749.28998568</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>3718248.09078568</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>3720654.47448568</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>3720654.47448568</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>3720654.47448568</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>3720654.47448568</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>3720654.47448568</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>3725126.77918568</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>3712201.53398568</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>3712201.53398568</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>3712241.53398568</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>3444924.51238568</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>3499286.134376232</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>3495789.217436074</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>3495789.217436074</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>3525691.871436074</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>3545642.408236074</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>3572679.622836074</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>2915095.24866584</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>3023574.34936584</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>2884010.34116584</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>2885366.647595605</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>2886065.068795606</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>2993468.473995605</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>2532273.327395605</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>2542945.662595605</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>2578994.503395605</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>2586492.854395605</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>2555721.329595605</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>2548266.978595606</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>2648300.088395606</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>2611354.540695606</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>2749426.472998898</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>2742679.339398899</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>2749026.660998899</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>2656392.486598899</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>2643894.211398899</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>2643894.211398899</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>2708316.517798899</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>2669875.970798899</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>2669875.970798899</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>2670598.687998899</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>2581712.113098899</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>2584170.568798899</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>2584170.568798899</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>2563235.596698899</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>2378934.737398899</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>2378934.737398899</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>2378934.737398899</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>2430696.643998899</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>2331720.538198899</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>2308292.740598898</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>499776.1182988981</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>575922.0167554382</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1502316.903138589</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1502316.903138589</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1503096.244538589</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1489785.735938589</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1452568.260938589</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1452568.260938589</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1452568.260938589</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1427657.297738589</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1427401.612238589</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>1427401.612238589</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1427401.612238589</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1427401.612238589</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
